--- a/REGULAR/FERMA, MARIA.xlsx
+++ b/REGULAR/FERMA, MARIA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2061BA93-D9C9-4CE1-999E-33B21CF406A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="335">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1045,7 +1044,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1429,6 +1428,9 @@
     <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1464,9 +1466,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1914,7 +1913,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1957,7 +1956,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2021,7 +2020,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2081,7 +2080,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2147,7 +2146,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2210,7 +2209,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +2307,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2366,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2432,7 +2431,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2475,7 +2474,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2550,7 +2549,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2736,7 +2735,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2802,7 +2801,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,7 +2859,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2926,7 +2925,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2982,7 +2981,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3057,7 +3056,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3100,7 +3099,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3166,7 +3165,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3222,7 +3221,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3320,7 +3319,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3383,7 +3382,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3449,25 +3448,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K518" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K518" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3479,13 +3478,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3494,14 +3493,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3805,7 +3804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3815,7 +3814,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3823,95 +3822,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K518"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="3060" topLeftCell="A489"/>
+      <pane ySplit="3060" topLeftCell="A489" activePane="bottomLeft"/>
       <selection activeCell="R3" sqref="R3"/>
-      <selection pane="bottomLeft" activeCell="B504" sqref="B504"/>
+      <selection pane="bottomLeft" activeCell="C509" sqref="C509"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3919,7 +3918,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3932,24 +3931,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3984,7 +3983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3993,7 +3992,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>184.89699999999993</v>
+        <v>187.39699999999993</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4003,12 +4002,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>170.125</v>
+        <v>172.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>44</v>
       </c>
@@ -4030,7 +4029,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35977</v>
       </c>
@@ -4054,7 +4053,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>36008</v>
       </c>
@@ -4080,7 +4079,7 @@
         <v>36013</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>47</v>
@@ -4102,7 +4101,7 @@
         <v>36034</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>48</v>
@@ -4122,7 +4121,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>36039</v>
       </c>
@@ -4146,7 +4145,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>36069</v>
       </c>
@@ -4172,7 +4171,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>52</v>
@@ -4192,7 +4191,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>36100</v>
       </c>
@@ -4218,7 +4217,7 @@
         <v>36115</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="15" t="s">
         <v>53</v>
@@ -4240,7 +4239,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="15" t="s">
         <v>54</v>
@@ -4260,7 +4259,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>36130</v>
       </c>
@@ -4284,7 +4283,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="46" t="s">
         <v>57</v>
       </c>
@@ -4302,7 +4301,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>36161</v>
       </c>
@@ -4326,7 +4325,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>36192</v>
       </c>
@@ -4346,7 +4345,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>36220</v>
       </c>
@@ -4372,7 +4371,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>49</v>
@@ -4392,7 +4391,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>76</v>
@@ -4412,7 +4411,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>36251</v>
       </c>
@@ -4432,7 +4431,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36281</v>
       </c>
@@ -4458,7 +4457,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>46</v>
@@ -4480,7 +4479,7 @@
         <v>36286</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>46</v>
@@ -4502,7 +4501,7 @@
         <v>36297</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>78</v>
@@ -4522,7 +4521,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36312</v>
       </c>
@@ -4546,7 +4545,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>36342</v>
       </c>
@@ -4572,7 +4571,7 @@
         <v>36358</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>81</v>
@@ -4592,7 +4591,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36373</v>
       </c>
@@ -4618,7 +4617,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>83</v>
@@ -4638,7 +4637,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36404</v>
       </c>
@@ -4664,7 +4663,7 @@
         <v>36412</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>46</v>
@@ -4686,7 +4685,7 @@
         <v>36418</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>46</v>
@@ -4708,7 +4707,7 @@
         <v>36431</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>54</v>
@@ -4728,7 +4727,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="47"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>36434</v>
       </c>
@@ -4754,7 +4753,7 @@
         <v>36434</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>85</v>
@@ -4776,7 +4775,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>46</v>
@@ -4798,7 +4797,7 @@
         <v>36447</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>85</v>
@@ -4820,7 +4819,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36465</v>
       </c>
@@ -4846,7 +4845,7 @@
         <v>36486</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>85</v>
@@ -4868,7 +4867,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>90</v>
@@ -4888,7 +4887,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>36495</v>
       </c>
@@ -4916,7 +4915,7 @@
         <v>36509</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>91</v>
@@ -4936,7 +4935,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="46" t="s">
         <v>58</v>
       </c>
@@ -4954,7 +4953,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>36526</v>
       </c>
@@ -4974,7 +4973,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>36557</v>
       </c>
@@ -5000,7 +4999,7 @@
         <v>36566</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>46</v>
@@ -5022,7 +5021,7 @@
         <v>36580</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>81</v>
@@ -5042,7 +5041,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>36586</v>
       </c>
@@ -5068,7 +5067,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>93</v>
@@ -5088,7 +5087,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>36617</v>
       </c>
@@ -5112,7 +5111,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>36647</v>
       </c>
@@ -5138,7 +5137,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>46</v>
@@ -5160,7 +5159,7 @@
         <v>36662</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>95</v>
@@ -5180,7 +5179,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>36678</v>
       </c>
@@ -5200,7 +5199,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>36708</v>
       </c>
@@ -5224,7 +5223,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>36739</v>
       </c>
@@ -5248,7 +5247,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>36770</v>
       </c>
@@ -5274,7 +5273,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>93</v>
@@ -5294,7 +5293,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>36800</v>
       </c>
@@ -5318,7 +5317,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>36831</v>
       </c>
@@ -5344,7 +5343,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>101</v>
@@ -5364,7 +5363,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>36861</v>
       </c>
@@ -5390,7 +5389,7 @@
         <v>36871</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>76</v>
@@ -5410,7 +5409,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>47</v>
@@ -5432,7 +5431,7 @@
         <v>36887</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>54</v>
@@ -5454,7 +5453,7 @@
         <v>36881</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="46" t="s">
         <v>59</v>
       </c>
@@ -5472,7 +5471,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>36892</v>
       </c>
@@ -5498,7 +5497,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>104</v>
@@ -5518,7 +5517,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>36923</v>
       </c>
@@ -5538,7 +5537,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>36951</v>
       </c>
@@ -5558,7 +5557,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>36982</v>
       </c>
@@ -5578,7 +5577,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>37012</v>
       </c>
@@ -5604,7 +5603,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>46</v>
@@ -5626,7 +5625,7 @@
         <v>37032</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>46</v>
@@ -5648,7 +5647,7 @@
         <v>37034</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37043</v>
       </c>
@@ -5674,7 +5673,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>107</v>
@@ -5696,7 +5695,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>76</v>
@@ -5716,7 +5715,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>37073</v>
       </c>
@@ -5736,7 +5735,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>37104</v>
       </c>
@@ -5756,7 +5755,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>37135</v>
       </c>
@@ -5776,7 +5775,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>37165</v>
       </c>
@@ -5800,7 +5799,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>37196</v>
       </c>
@@ -5826,7 +5825,7 @@
         <v>37208</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>82</v>
@@ -5848,7 +5847,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>49</v>
@@ -5868,7 +5867,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>37226</v>
       </c>
@@ -5894,7 +5893,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>88</v>
@@ -5914,7 +5913,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="46" t="s">
         <v>60</v>
       </c>
@@ -5932,7 +5931,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>37257</v>
       </c>
@@ -5956,7 +5955,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>37288</v>
       </c>
@@ -5976,7 +5975,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>37316</v>
       </c>
@@ -6002,7 +6001,7 @@
         <v>37330</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>76</v>
@@ -6022,7 +6021,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>46</v>
@@ -6044,7 +6043,7 @@
         <v>37351</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>37347</v>
       </c>
@@ -6070,7 +6069,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>37377</v>
       </c>
@@ -6090,7 +6089,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>37408</v>
       </c>
@@ -6110,7 +6109,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>37438</v>
       </c>
@@ -6130,7 +6129,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>37469</v>
       </c>
@@ -6150,7 +6149,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>37500</v>
       </c>
@@ -6176,7 +6175,7 @@
         <v>37501</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>37530</v>
       </c>
@@ -6196,7 +6195,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>37561</v>
       </c>
@@ -6222,7 +6221,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>37591</v>
       </c>
@@ -6246,7 +6245,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="46" t="s">
         <v>61</v>
       </c>
@@ -6264,7 +6263,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>37622</v>
       </c>
@@ -6284,7 +6283,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>37653</v>
       </c>
@@ -6304,7 +6303,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>37681</v>
       </c>
@@ -6328,7 +6327,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>37712</v>
       </c>
@@ -6352,7 +6351,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>74</v>
@@ -6374,7 +6373,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>121</v>
@@ -6394,7 +6393,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>37742</v>
       </c>
@@ -6414,7 +6413,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>37773</v>
       </c>
@@ -6434,7 +6433,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>37803</v>
       </c>
@@ -6454,7 +6453,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>37834</v>
       </c>
@@ -6474,7 +6473,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>37865</v>
       </c>
@@ -6498,7 +6497,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>37895</v>
       </c>
@@ -6518,7 +6517,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>37926</v>
       </c>
@@ -6544,7 +6543,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>124</v>
@@ -6564,7 +6563,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>37956</v>
       </c>
@@ -6588,7 +6587,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="46" t="s">
         <v>62</v>
       </c>
@@ -6606,7 +6605,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>37987</v>
       </c>
@@ -6626,7 +6625,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>38018</v>
       </c>
@@ -6650,7 +6649,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>38047</v>
       </c>
@@ -6674,7 +6673,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>76</v>
@@ -6694,7 +6693,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>38078</v>
       </c>
@@ -6720,7 +6719,7 @@
         <v>38093</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>127</v>
@@ -6740,7 +6739,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>38108</v>
       </c>
@@ -6766,7 +6765,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>46</v>
@@ -6788,7 +6787,7 @@
         <v>38124</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>46</v>
@@ -6810,7 +6809,7 @@
         <v>38128</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>38139</v>
       </c>
@@ -6834,7 +6833,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>38169</v>
       </c>
@@ -6858,7 +6857,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>76</v>
@@ -6878,7 +6877,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>38200</v>
       </c>
@@ -6902,7 +6901,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>38231</v>
       </c>
@@ -6922,7 +6921,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>38261</v>
       </c>
@@ -6942,7 +6941,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>38292</v>
       </c>
@@ -6968,7 +6967,7 @@
         <v>38342</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>38322</v>
       </c>
@@ -6988,7 +6987,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="46" t="s">
         <v>63</v>
       </c>
@@ -7006,7 +7005,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>38353</v>
       </c>
@@ -7032,7 +7031,7 @@
         <v>38377</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>76</v>
@@ -7052,7 +7051,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>80</v>
@@ -7072,7 +7071,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>85</v>
@@ -7094,7 +7093,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>85</v>
@@ -7116,7 +7115,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>38384</v>
       </c>
@@ -7140,7 +7139,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>38412</v>
       </c>
@@ -7166,7 +7165,7 @@
         <v>38433</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>137</v>
@@ -7186,7 +7185,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="47"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>38443</v>
       </c>
@@ -7212,7 +7211,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>140</v>
@@ -7232,7 +7231,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>38473</v>
       </c>
@@ -7256,7 +7255,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>38504</v>
       </c>
@@ -7282,7 +7281,7 @@
         <v>38523</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>141</v>
@@ -7302,7 +7301,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>38534</v>
       </c>
@@ -7328,7 +7327,7 @@
         <v>38534</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>85</v>
@@ -7350,7 +7349,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>46</v>
@@ -7372,7 +7371,7 @@
         <v>38566</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>142</v>
@@ -7392,7 +7391,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>76</v>
@@ -7412,7 +7411,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>38565</v>
       </c>
@@ -7436,7 +7435,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>38596</v>
       </c>
@@ -7460,7 +7459,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>38626</v>
       </c>
@@ -7484,7 +7483,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>38657</v>
       </c>
@@ -7506,7 +7505,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>149</v>
@@ -7526,7 +7525,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>38687</v>
       </c>
@@ -7550,7 +7549,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>76</v>
@@ -7570,7 +7569,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="46" t="s">
         <v>64</v>
       </c>
@@ -7588,7 +7587,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>38718</v>
       </c>
@@ -7614,7 +7613,7 @@
         <v>38747</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>152</v>
@@ -7634,7 +7633,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>154</v>
@@ -7654,7 +7653,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>38749</v>
       </c>
@@ -7678,7 +7677,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>38777</v>
       </c>
@@ -7702,7 +7701,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>38808</v>
       </c>
@@ -7728,7 +7727,7 @@
         <v>38832</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>46</v>
@@ -7750,7 +7749,7 @@
         <v>38839</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>138</v>
@@ -7772,7 +7771,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>85</v>
@@ -7794,7 +7793,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>46</v>
@@ -7816,7 +7815,7 @@
         <v>38860</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>148</v>
@@ -7838,7 +7837,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>157</v>
@@ -7858,7 +7857,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>38838</v>
       </c>
@@ -7882,7 +7881,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>38869</v>
       </c>
@@ -7908,7 +7907,7 @@
         <v>38882</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>162</v>
@@ -7928,7 +7927,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="47"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>38899</v>
       </c>
@@ -7952,7 +7951,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>38930</v>
       </c>
@@ -7978,7 +7977,7 @@
         <v>38938</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>46</v>
@@ -8000,7 +7999,7 @@
         <v>38959</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>164</v>
@@ -8020,7 +8019,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>38961</v>
       </c>
@@ -8046,7 +8045,7 @@
         <v>38975</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>165</v>
@@ -8066,7 +8065,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>38991</v>
       </c>
@@ -8092,7 +8091,7 @@
         <v>39003</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>166</v>
@@ -8112,7 +8111,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="47"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>39022</v>
       </c>
@@ -8136,7 +8135,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>39052</v>
       </c>
@@ -8160,7 +8159,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>168</v>
@@ -8180,7 +8179,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="46" t="s">
         <v>65</v>
       </c>
@@ -8198,7 +8197,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>39083</v>
       </c>
@@ -8222,7 +8221,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>39114</v>
       </c>
@@ -8246,7 +8245,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>39142</v>
       </c>
@@ -8272,7 +8271,7 @@
         <v>39161</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>85</v>
@@ -8294,7 +8293,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>172</v>
@@ -8314,7 +8313,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>175</v>
@@ -8334,7 +8333,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>39173</v>
       </c>
@@ -8360,7 +8359,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>178</v>
@@ -8380,7 +8379,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>39203</v>
       </c>
@@ -8406,7 +8405,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>46</v>
@@ -8428,7 +8427,7 @@
         <v>39226</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>85</v>
@@ -8450,7 +8449,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>179</v>
@@ -8470,7 +8469,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>39234</v>
       </c>
@@ -8496,7 +8495,7 @@
         <v>39246</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>46</v>
@@ -8518,7 +8517,7 @@
         <v>39255</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>182</v>
@@ -8538,7 +8537,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>39264</v>
       </c>
@@ -8562,7 +8561,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>39295</v>
       </c>
@@ -8588,7 +8587,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>185</v>
@@ -8608,7 +8607,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>39326</v>
       </c>
@@ -8632,7 +8631,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>39356</v>
       </c>
@@ -8658,7 +8657,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>136</v>
@@ -8678,7 +8677,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>39387</v>
       </c>
@@ -8704,7 +8703,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>188</v>
@@ -8724,7 +8723,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>39417</v>
       </c>
@@ -8748,7 +8747,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="46" t="s">
         <v>66</v>
       </c>
@@ -8766,7 +8765,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>39448</v>
       </c>
@@ -8790,7 +8789,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>39479</v>
       </c>
@@ -8816,7 +8815,7 @@
         <v>39486</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>191</v>
@@ -8836,7 +8835,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>39508</v>
       </c>
@@ -8862,7 +8861,7 @@
         <v>39511</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>192</v>
@@ -8882,7 +8881,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>39539</v>
       </c>
@@ -8906,7 +8905,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>138</v>
@@ -8928,7 +8927,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>46</v>
@@ -8950,7 +8949,7 @@
         <v>39567</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>193</v>
@@ -8970,7 +8969,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>39569</v>
       </c>
@@ -8994,7 +8993,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>39600</v>
       </c>
@@ -9020,7 +9019,7 @@
         <v>39617</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="15" t="s">
         <v>197</v>
@@ -9040,7 +9039,7 @@
       <c r="J234" s="12"/>
       <c r="K234" s="15"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>39630</v>
       </c>
@@ -9064,7 +9063,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>39661</v>
       </c>
@@ -9088,7 +9087,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>39692</v>
       </c>
@@ -9112,7 +9111,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>39722</v>
       </c>
@@ -9136,7 +9135,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>39753</v>
       </c>
@@ -9160,7 +9159,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>121</v>
@@ -9180,7 +9179,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>39783</v>
       </c>
@@ -9204,7 +9203,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="46" t="s">
         <v>67</v>
       </c>
@@ -9222,7 +9221,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>39814</v>
       </c>
@@ -9246,7 +9245,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>39845</v>
       </c>
@@ -9270,7 +9269,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>39873</v>
       </c>
@@ -9296,7 +9295,7 @@
         <v>39885</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>76</v>
@@ -9316,7 +9315,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>203</v>
@@ -9336,7 +9335,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>39904</v>
       </c>
@@ -9362,7 +9361,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>98</v>
@@ -9382,7 +9381,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>39934</v>
       </c>
@@ -9406,7 +9405,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>39965</v>
       </c>
@@ -9430,7 +9429,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>39995</v>
       </c>
@@ -9454,7 +9453,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>40026</v>
       </c>
@@ -9478,7 +9477,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>40057</v>
       </c>
@@ -9502,7 +9501,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>40087</v>
       </c>
@@ -9526,7 +9525,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>40118</v>
       </c>
@@ -9550,7 +9549,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>211</v>
@@ -9570,7 +9569,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>40148</v>
       </c>
@@ -9596,7 +9595,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>212</v>
@@ -9616,7 +9615,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="46" t="s">
         <v>68</v>
       </c>
@@ -9634,7 +9633,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>40179</v>
       </c>
@@ -9658,7 +9657,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>40210</v>
       </c>
@@ -9682,7 +9681,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>40238</v>
       </c>
@@ -9706,7 +9705,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>40269</v>
       </c>
@@ -9730,7 +9729,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>40299</v>
       </c>
@@ -9756,7 +9755,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>148</v>
@@ -9778,7 +9777,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>46</v>
@@ -9800,7 +9799,7 @@
         <v>40315</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>218</v>
@@ -9820,7 +9819,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>40330</v>
       </c>
@@ -9844,7 +9843,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>40360</v>
       </c>
@@ -9868,7 +9867,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>40391</v>
       </c>
@@ -9892,7 +9891,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>40422</v>
       </c>
@@ -9918,7 +9917,7 @@
         <v>40441</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>81</v>
@@ -9938,7 +9937,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="47"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>40452</v>
       </c>
@@ -9960,7 +9959,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>223</v>
@@ -9980,7 +9979,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>40483</v>
       </c>
@@ -10004,7 +10003,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>40513</v>
       </c>
@@ -10030,7 +10029,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>112</v>
@@ -10052,7 +10051,7 @@
         <v>40535</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>172</v>
@@ -10072,7 +10071,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>81</v>
@@ -10092,7 +10091,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="46" t="s">
         <v>69</v>
       </c>
@@ -10110,7 +10109,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>40544</v>
       </c>
@@ -10134,7 +10133,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>40575</v>
       </c>
@@ -10158,7 +10157,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>40603</v>
       </c>
@@ -10182,7 +10181,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>76</v>
@@ -10202,7 +10201,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>227</v>
@@ -10222,7 +10221,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>40634</v>
       </c>
@@ -10246,7 +10245,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>40664</v>
       </c>
@@ -10272,7 +10271,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>85</v>
@@ -10294,7 +10293,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>232</v>
@@ -10314,7 +10313,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>40695</v>
       </c>
@@ -10338,7 +10337,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>40725</v>
       </c>
@@ -10362,7 +10361,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>40756</v>
       </c>
@@ -10386,7 +10385,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>40787</v>
       </c>
@@ -10410,7 +10409,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>40817</v>
       </c>
@@ -10434,7 +10433,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>40848</v>
       </c>
@@ -10458,7 +10457,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>40878</v>
       </c>
@@ -10484,7 +10483,7 @@
         <v>40886</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>148</v>
@@ -10506,7 +10505,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>240</v>
@@ -10526,7 +10525,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="46" t="s">
         <v>70</v>
       </c>
@@ -10544,7 +10543,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>40909</v>
       </c>
@@ -10570,7 +10569,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>242</v>
@@ -10590,7 +10589,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>40940</v>
       </c>
@@ -10616,7 +10615,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>40969</v>
       </c>
@@ -10642,7 +10641,7 @@
         <v>40990</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>41000</v>
       </c>
@@ -10662,7 +10661,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>41030</v>
       </c>
@@ -10688,7 +10687,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>41061</v>
       </c>
@@ -10714,7 +10713,7 @@
         <v>41089</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>41091</v>
       </c>
@@ -10740,7 +10739,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>41122</v>
       </c>
@@ -10766,7 +10765,7 @@
         <v>41151</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>41153</v>
       </c>
@@ -10792,7 +10791,7 @@
         <v>41158</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>46</v>
@@ -10814,7 +10813,7 @@
         <v>41163</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>46</v>
@@ -10836,7 +10835,7 @@
         <v>41166</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>172</v>
@@ -10856,7 +10855,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>41183</v>
       </c>
@@ -10882,7 +10881,7 @@
         <v>41207</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>41214</v>
       </c>
@@ -10908,7 +10907,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>41244</v>
       </c>
@@ -10934,7 +10933,7 @@
         <v>41253</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="46" t="s">
         <v>71</v>
       </c>
@@ -10952,7 +10951,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>41275</v>
       </c>
@@ -10978,7 +10977,7 @@
         <v>41299</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>250</v>
@@ -10998,7 +10997,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>41306</v>
       </c>
@@ -11018,7 +11017,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>41334</v>
       </c>
@@ -11038,7 +11037,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>41365</v>
       </c>
@@ -11062,7 +11061,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>41395</v>
       </c>
@@ -11088,7 +11087,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>88</v>
@@ -11108,7 +11107,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>41426</v>
       </c>
@@ -11132,7 +11131,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>41456</v>
       </c>
@@ -11156,7 +11155,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>41487</v>
       </c>
@@ -11182,7 +11181,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>253</v>
@@ -11202,7 +11201,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>41518</v>
       </c>
@@ -11228,7 +11227,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>254</v>
@@ -11248,7 +11247,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>41548</v>
       </c>
@@ -11274,7 +11273,7 @@
         <v>41558</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>147</v>
@@ -11294,7 +11293,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>41579</v>
       </c>
@@ -11318,7 +11317,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>258</v>
@@ -11338,7 +11337,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>41609</v>
       </c>
@@ -11364,7 +11363,7 @@
         <v>41624</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>148</v>
@@ -11386,7 +11385,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>148</v>
@@ -11408,7 +11407,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>259</v>
@@ -11428,7 +11427,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="46" t="s">
         <v>72</v>
       </c>
@@ -11446,7 +11445,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>41640</v>
       </c>
@@ -11470,7 +11469,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>76</v>
@@ -11490,7 +11489,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>262</v>
@@ -11510,7 +11509,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>41671</v>
       </c>
@@ -11534,7 +11533,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>41699</v>
       </c>
@@ -11558,7 +11557,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>41730</v>
       </c>
@@ -11584,7 +11583,7 @@
         <v>41758</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>267</v>
@@ -11606,7 +11605,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>268</v>
@@ -11626,7 +11625,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>41760</v>
       </c>
@@ -11650,7 +11649,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>41791</v>
       </c>
@@ -11676,7 +11675,7 @@
         <v>41803</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>270</v>
@@ -11696,7 +11695,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>41821</v>
       </c>
@@ -11720,7 +11719,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>41852</v>
       </c>
@@ -11744,7 +11743,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>41883</v>
       </c>
@@ -11770,7 +11769,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>273</v>
@@ -11790,7 +11789,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>41913</v>
       </c>
@@ -11816,7 +11815,7 @@
         <v>41927</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>275</v>
@@ -11836,7 +11835,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>41944</v>
       </c>
@@ -11862,7 +11861,7 @@
         <v>41948</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>46</v>
@@ -11884,7 +11883,7 @@
         <v>41956</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>148</v>
@@ -11906,7 +11905,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>276</v>
@@ -11926,7 +11925,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>41974</v>
       </c>
@@ -11950,7 +11949,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="46" t="s">
         <v>73</v>
       </c>
@@ -11968,7 +11967,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>42005</v>
       </c>
@@ -11994,7 +11993,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>107</v>
@@ -12016,7 +12015,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>42036</v>
       </c>
@@ -12042,7 +12041,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>107</v>
@@ -12064,7 +12063,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>231</v>
@@ -12084,7 +12083,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>42064</v>
       </c>
@@ -12110,7 +12109,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>76</v>
@@ -12130,7 +12129,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>292</v>
@@ -12150,7 +12149,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>42095</v>
       </c>
@@ -12176,7 +12175,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>152</v>
@@ -12196,7 +12195,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>293</v>
@@ -12216,7 +12215,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>42125</v>
       </c>
@@ -12242,7 +12241,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>46</v>
@@ -12264,7 +12263,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>253</v>
@@ -12284,7 +12283,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>42156</v>
       </c>
@@ -12308,7 +12307,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>42186</v>
       </c>
@@ -12334,7 +12333,7 @@
         <v>42185</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>46</v>
@@ -12356,7 +12355,7 @@
         <v>42205</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>297</v>
@@ -12376,7 +12375,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>42217</v>
       </c>
@@ -12402,7 +12401,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>141</v>
@@ -12422,7 +12421,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>42248</v>
       </c>
@@ -12448,7 +12447,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>299</v>
@@ -12468,7 +12467,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>42278</v>
       </c>
@@ -12494,7 +12493,7 @@
         <v>42279</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>46</v>
@@ -12516,7 +12515,7 @@
         <v>42304</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>301</v>
@@ -12536,7 +12535,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>42309</v>
       </c>
@@ -12562,7 +12561,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>53</v>
@@ -12584,7 +12583,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>303</v>
@@ -12604,7 +12603,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>42339</v>
       </c>
@@ -12628,7 +12627,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>306</v>
@@ -12648,7 +12647,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="46" t="s">
         <v>279</v>
       </c>
@@ -12666,7 +12665,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>42370</v>
       </c>
@@ -12692,7 +12691,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>42401</v>
       </c>
@@ -12718,7 +12717,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>46</v>
@@ -12740,7 +12739,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>42430</v>
       </c>
@@ -12760,7 +12759,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>42461</v>
       </c>
@@ -12780,7 +12779,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>42491</v>
       </c>
@@ -12806,7 +12805,7 @@
         <v>42492</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>152</v>
@@ -12826,7 +12825,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>42522</v>
       </c>
@@ -12852,7 +12851,7 @@
         <v>42520</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>46</v>
@@ -12874,7 +12873,7 @@
         <v>42537</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>42552</v>
       </c>
@@ -12894,7 +12893,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>42583</v>
       </c>
@@ -12920,7 +12919,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>46</v>
@@ -12942,7 +12941,7 @@
         <v>42612</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>42614</v>
       </c>
@@ -12962,7 +12961,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>42644</v>
       </c>
@@ -12988,7 +12987,7 @@
         <v>42657</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>46</v>
@@ -13010,7 +13009,7 @@
         <v>42664</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>42675</v>
       </c>
@@ -13036,7 +13035,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>46</v>
@@ -13058,7 +13057,7 @@
         <v>42697</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>42705</v>
       </c>
@@ -13082,7 +13081,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="46" t="s">
         <v>280</v>
       </c>
@@ -13100,7 +13099,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>42736</v>
       </c>
@@ -13126,7 +13125,7 @@
         <v>42748</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>42767</v>
       </c>
@@ -13152,7 +13151,7 @@
         <v>42790</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>42795</v>
       </c>
@@ -13178,7 +13177,7 @@
         <v>42825</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>82</v>
@@ -13200,7 +13199,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>76</v>
@@ -13220,7 +13219,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>46</v>
@@ -13240,7 +13239,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="47"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>42826</v>
       </c>
@@ -13260,7 +13259,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>42856</v>
       </c>
@@ -13286,7 +13285,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>46</v>
@@ -13308,7 +13307,7 @@
         <v>42884</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>42887</v>
       </c>
@@ -13328,7 +13327,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>42917</v>
       </c>
@@ -13354,7 +13353,7 @@
         <v>42923</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>46</v>
@@ -13376,7 +13375,7 @@
         <v>46601</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>46</v>
@@ -13398,7 +13397,7 @@
         <v>42972</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>42948</v>
       </c>
@@ -13424,7 +13423,7 @@
         <v>42985</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>42979</v>
       </c>
@@ -13444,7 +13443,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>43009</v>
       </c>
@@ -13464,7 +13463,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>43040</v>
       </c>
@@ -13490,7 +13489,7 @@
         <v>43052</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>43070</v>
       </c>
@@ -13514,7 +13513,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="46" t="s">
         <v>281</v>
       </c>
@@ -13532,7 +13531,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>43101</v>
       </c>
@@ -13558,7 +13557,7 @@
         <v>43125</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>43132</v>
       </c>
@@ -13584,7 +13583,7 @@
         <v>43159</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>43160</v>
       </c>
@@ -13608,7 +13607,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>43191</v>
       </c>
@@ -13628,7 +13627,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>43221</v>
       </c>
@@ -13654,7 +13653,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>46</v>
@@ -13676,7 +13675,7 @@
         <v>43230</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>53</v>
@@ -13698,7 +13697,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>46</v>
@@ -13720,7 +13719,7 @@
         <v>43243</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>43252</v>
       </c>
@@ -13740,7 +13739,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>43282</v>
       </c>
@@ -13760,7 +13759,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>43313</v>
       </c>
@@ -13786,7 +13785,7 @@
         <v>43326</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>43344</v>
       </c>
@@ -13806,7 +13805,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>43374</v>
       </c>
@@ -13826,7 +13825,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>43405</v>
       </c>
@@ -13846,7 +13845,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>43435</v>
       </c>
@@ -13872,7 +13871,7 @@
         <v>43448</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="46" t="s">
         <v>282</v>
       </c>
@@ -13890,7 +13889,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>43466</v>
       </c>
@@ -13910,7 +13909,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>43497</v>
       </c>
@@ -13936,7 +13935,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>43525</v>
       </c>
@@ -13956,7 +13955,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>43556</v>
       </c>
@@ -13980,7 +13979,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>46</v>
@@ -14002,7 +14001,7 @@
         <v>43584</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>74</v>
@@ -14024,7 +14023,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>43586</v>
       </c>
@@ -14044,7 +14043,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>43617</v>
       </c>
@@ -14070,7 +14069,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>46</v>
@@ -14092,7 +14091,7 @@
         <v>43650</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>47</v>
@@ -14114,7 +14113,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>43647</v>
       </c>
@@ -14134,7 +14133,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>43678</v>
       </c>
@@ -14160,7 +14159,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>43709</v>
       </c>
@@ -14180,7 +14179,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>43739</v>
       </c>
@@ -14200,7 +14199,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>43770</v>
       </c>
@@ -14220,7 +14219,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>43800</v>
       </c>
@@ -14244,7 +14243,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="46" t="s">
         <v>283</v>
       </c>
@@ -14262,7 +14261,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>43831</v>
       </c>
@@ -14286,7 +14285,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>43862</v>
       </c>
@@ -14306,7 +14305,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>43891</v>
       </c>
@@ -14326,7 +14325,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>43922</v>
       </c>
@@ -14346,7 +14345,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>43952</v>
       </c>
@@ -14366,7 +14365,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>43983</v>
       </c>
@@ -14386,7 +14385,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>44013</v>
       </c>
@@ -14406,7 +14405,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>44044</v>
       </c>
@@ -14432,7 +14431,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>85</v>
@@ -14454,7 +14453,7 @@
         <v>44086</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>44075</v>
       </c>
@@ -14474,7 +14473,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>44105</v>
       </c>
@@ -14494,7 +14493,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>44136</v>
       </c>
@@ -14514,7 +14513,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>44166</v>
       </c>
@@ -14540,7 +14539,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="46" t="s">
         <v>284</v>
       </c>
@@ -14558,7 +14557,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>44197</v>
       </c>
@@ -14578,7 +14577,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>44228</v>
       </c>
@@ -14598,7 +14597,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>44256</v>
       </c>
@@ -14618,7 +14617,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>44287</v>
       </c>
@@ -14638,7 +14637,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>44317</v>
       </c>
@@ -14658,7 +14657,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>44348</v>
       </c>
@@ -14678,7 +14677,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>44378</v>
       </c>
@@ -14698,7 +14697,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>44409</v>
       </c>
@@ -14718,7 +14717,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>44440</v>
       </c>
@@ -14738,7 +14737,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>44470</v>
       </c>
@@ -14758,7 +14757,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>44501</v>
       </c>
@@ -14778,7 +14777,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>44531</v>
       </c>
@@ -14802,7 +14801,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="46" t="s">
         <v>326</v>
       </c>
@@ -14820,7 +14819,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>44562</v>
       </c>
@@ -14840,7 +14839,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>44593</v>
       </c>
@@ -14860,7 +14859,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>44621</v>
       </c>
@@ -14884,7 +14883,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>44652</v>
       </c>
@@ -14904,7 +14903,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>44682</v>
       </c>
@@ -14930,7 +14929,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>46</v>
@@ -14952,7 +14951,7 @@
         <v>44711</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>44713</v>
       </c>
@@ -14972,7 +14971,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>44743</v>
       </c>
@@ -14992,7 +14991,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>44774</v>
       </c>
@@ -15018,7 +15017,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>44805</v>
       </c>
@@ -15044,7 +15043,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>44835</v>
       </c>
@@ -15064,7 +15063,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>44866</v>
       </c>
@@ -15090,7 +15089,7 @@
         <v>44872</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>44896</v>
       </c>
@@ -15110,7 +15109,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="46" t="s">
         <v>334</v>
       </c>
@@ -15128,7 +15127,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>44927</v>
       </c>
@@ -15148,43 +15147,53 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>44958</v>
       </c>
       <c r="B507" s="20"/>
-      <c r="C507" s="13"/>
+      <c r="C507" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D507" s="39"/>
       <c r="E507" s="9"/>
       <c r="F507" s="20"/>
-      <c r="G507" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G507" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H507" s="39"/>
       <c r="I507" s="9"/>
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A508" s="40"/>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A508" s="40">
+        <v>44986</v>
+      </c>
       <c r="B508" s="20"/>
-      <c r="C508" s="13"/>
+      <c r="C508" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D508" s="39"/>
       <c r="E508" s="9"/>
       <c r="F508" s="20"/>
-      <c r="G508" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G508" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H508" s="39"/>
       <c r="I508" s="9"/>
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A509" s="40"/>
-      <c r="B509" s="20"/>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A509" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B509" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C509" s="13"/>
       <c r="D509" s="39"/>
       <c r="E509" s="9"/>
@@ -15196,9 +15205,11 @@
       <c r="H509" s="39"/>
       <c r="I509" s="9"/>
       <c r="J509" s="11"/>
-      <c r="K509" s="20"/>
-    </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K509" s="47">
+        <v>45042</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -15214,7 +15225,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -15230,7 +15241,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -15246,7 +15257,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -15262,7 +15273,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -15278,7 +15289,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -15294,7 +15305,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -15310,7 +15321,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -15326,8 +15337,8 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A518" s="62"/>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A518" s="50"/>
       <c r="B518" s="15"/>
       <c r="C518" s="41"/>
       <c r="D518" s="42"/>
@@ -15357,10 +15368,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15383,7 +15394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -15391,34 +15402,34 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="60" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -15447,7 +15458,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>16.859000000000002</v>
       </c>
@@ -15475,17 +15486,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -15499,14 +15510,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -15533,7 +15544,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -15559,7 +15570,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -15585,7 +15596,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -15611,7 +15622,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -15637,7 +15648,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -15663,7 +15674,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -15689,7 +15700,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -15715,7 +15726,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -15735,7 +15746,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -15755,7 +15766,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -15775,7 +15786,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -15796,7 +15807,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -15817,7 +15828,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -15838,7 +15849,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -15859,7 +15870,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -15880,7 +15891,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15901,7 +15912,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15922,7 +15933,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -15943,7 +15954,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15964,7 +15975,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15985,7 +15996,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16006,7 +16017,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16027,7 +16038,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16048,7 +16059,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16069,7 +16080,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16090,7 +16101,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16111,7 +16122,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16132,7 +16143,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -16153,7 +16164,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -16174,7 +16185,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -16195,7 +16206,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -16204,7 +16215,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -16213,7 +16224,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -16222,7 +16233,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -16231,7 +16242,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -16240,7 +16251,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -16249,7 +16260,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -16258,7 +16269,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -16267,7 +16278,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -16276,7 +16287,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -16285,7 +16296,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -16294,7 +16305,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -16303,7 +16314,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -16312,7 +16323,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -16321,7 +16332,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -16330,7 +16341,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -16339,7 +16350,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -16348,7 +16359,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -16357,7 +16368,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -16366,7 +16377,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -16375,7 +16386,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -16384,7 +16395,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -16393,7 +16404,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -16402,7 +16413,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -16411,7 +16422,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -16420,7 +16431,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -16429,7 +16440,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -16438,7 +16449,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -16447,7 +16458,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -16456,7 +16467,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/FERMA, MARIA.xlsx
+++ b/REGULAR/FERMA, MARIA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="336">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1035,10 +1035,13 @@
     <t>9/12-16,19,22/2022</t>
   </si>
   <si>
-    <t>FERMA, MARIA</t>
-  </si>
-  <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>FERMA, MARIA ILAO</t>
+  </si>
+  <si>
+    <t>5/15,16/2023</t>
   </si>
 </sst>
 </file>
@@ -1913,7 +1916,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1956,7 +1959,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2020,7 +2023,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2080,7 +2083,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2146,7 +2149,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2209,7 +2212,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2310,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,7 +2369,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2431,7 +2434,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2474,7 +2477,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2549,7 +2552,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2735,7 +2738,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,7 +2804,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2859,7 +2862,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2925,7 +2928,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2981,7 +2984,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3056,7 +3059,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3099,7 +3102,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3165,7 +3168,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3221,7 +3224,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3319,7 +3322,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3382,7 +3385,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3828,10 +3831,10 @@
   </sheetPr>
   <dimension ref="A2:K518"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="3060" topLeftCell="A489" activePane="bottomLeft"/>
-      <selection activeCell="R3" sqref="R3"/>
-      <selection pane="bottomLeft" activeCell="C509" sqref="C509"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3795" topLeftCell="A495" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="B512" sqref="B512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3854,7 +3857,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
@@ -3992,7 +3995,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>187.39699999999993</v>
+        <v>187.64699999999993</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4002,7 +4005,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>172.625</v>
+        <v>173.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15111,7 +15114,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="46" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -15194,13 +15197,15 @@
       <c r="B509" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C509" s="13"/>
+      <c r="C509" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D509" s="39"/>
       <c r="E509" s="9"/>
       <c r="F509" s="20"/>
-      <c r="G509" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G509" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H509" s="39"/>
       <c r="I509" s="9"/>
@@ -15211,7 +15216,9 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
-      <c r="B510" s="20"/>
+      <c r="B510" s="20" t="s">
+        <v>152</v>
+      </c>
       <c r="C510" s="13"/>
       <c r="D510" s="39"/>
       <c r="E510" s="9"/>
@@ -15223,13 +15230,19 @@
       <c r="H510" s="39"/>
       <c r="I510" s="9"/>
       <c r="J510" s="11"/>
-      <c r="K510" s="20"/>
+      <c r="K510" s="20" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
-      <c r="B511" s="20"/>
+      <c r="B511" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C511" s="13"/>
-      <c r="D511" s="39"/>
+      <c r="D511" s="39">
+        <v>1</v>
+      </c>
       <c r="E511" s="9"/>
       <c r="F511" s="20"/>
       <c r="G511" s="13" t="str">
@@ -15239,7 +15252,9 @@
       <c r="H511" s="39"/>
       <c r="I511" s="9"/>
       <c r="J511" s="11"/>
-      <c r="K511" s="20"/>
+      <c r="K511" s="47">
+        <v>45054</v>
+      </c>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>

--- a/REGULAR/FERMA, MARIA.xlsx
+++ b/REGULAR/FERMA, MARIA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="339">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1042,6 +1042,15 @@
   </si>
   <si>
     <t>5/15,16/2023</t>
+  </si>
+  <si>
+    <t>5/17,22/2023</t>
+  </si>
+  <si>
+    <t>5/26,29/2023</t>
+  </si>
+  <si>
+    <t>6/6,7/2023</t>
   </si>
 </sst>
 </file>
@@ -1916,7 +1925,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1959,7 +1968,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2023,7 +2032,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2083,7 +2092,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2149,7 +2158,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2212,7 +2221,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2310,7 +2319,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2369,7 +2378,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2434,7 +2443,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2477,7 +2486,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2552,7 +2561,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2738,7 +2747,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2804,7 +2813,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2862,7 +2871,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2928,7 +2937,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2984,7 +2993,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3059,7 +3068,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3102,7 +3111,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3168,7 +3177,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3224,7 +3233,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3322,7 +3331,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3385,7 +3394,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3832,9 +3841,9 @@
   <dimension ref="A2:K518"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3795" topLeftCell="A495" activePane="bottomLeft"/>
+      <pane ySplit="3795" topLeftCell="A498" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B512" sqref="B512"/>
+      <selection pane="bottomLeft" activeCell="H516" sqref="H516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3995,7 +4004,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>187.64699999999993</v>
+        <v>184.89699999999993</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4005,7 +4014,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>173.875</v>
+        <v>172.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15257,26 +15266,40 @@
       </c>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A512" s="40"/>
-      <c r="B512" s="20"/>
-      <c r="C512" s="13"/>
+      <c r="A512" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B512" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C512" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D512" s="39"/>
       <c r="E512" s="9"/>
       <c r="F512" s="20"/>
-      <c r="G512" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H512" s="39"/>
+      <c r="G512" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H512" s="39">
+        <v>2</v>
+      </c>
       <c r="I512" s="9"/>
       <c r="J512" s="11"/>
-      <c r="K512" s="20"/>
+      <c r="K512" s="20" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
-      <c r="B513" s="20"/>
+      <c r="B513" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C513" s="13"/>
-      <c r="D513" s="39"/>
+      <c r="D513" s="39">
+        <v>2</v>
+      </c>
       <c r="E513" s="9"/>
       <c r="F513" s="20"/>
       <c r="G513" s="13" t="str">
@@ -15286,13 +15309,19 @@
       <c r="H513" s="39"/>
       <c r="I513" s="9"/>
       <c r="J513" s="11"/>
-      <c r="K513" s="20"/>
+      <c r="K513" s="20" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
-      <c r="B514" s="20"/>
+      <c r="B514" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C514" s="13"/>
-      <c r="D514" s="39"/>
+      <c r="D514" s="39">
+        <v>2</v>
+      </c>
       <c r="E514" s="9"/>
       <c r="F514" s="20"/>
       <c r="G514" s="13" t="str">
@@ -15302,11 +15331,15 @@
       <c r="H514" s="39"/>
       <c r="I514" s="9"/>
       <c r="J514" s="11"/>
-      <c r="K514" s="20"/>
+      <c r="K514" s="20" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
-      <c r="B515" s="20"/>
+      <c r="B515" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C515" s="13"/>
       <c r="D515" s="39"/>
       <c r="E515" s="9"/>
@@ -15315,10 +15348,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H515" s="39"/>
+      <c r="H515" s="39">
+        <v>1</v>
+      </c>
       <c r="I515" s="9"/>
       <c r="J515" s="11"/>
-      <c r="K515" s="20"/>
+      <c r="K515" s="47">
+        <v>45076</v>
+      </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>

--- a/REGULAR/FERMA, MARIA.xlsx
+++ b/REGULAR/FERMA, MARIA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="340">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1051,6 +1051,9 @@
   </si>
   <si>
     <t>6/6,7/2023</t>
+  </si>
+  <si>
+    <t>8/4,7,16/2023</t>
   </si>
 </sst>
 </file>
@@ -1925,7 +1928,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1968,7 +1971,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,7 +2035,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2095,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2158,7 +2161,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2221,7 +2224,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2319,7 +2322,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2378,7 +2381,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2443,7 +2446,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2486,7 +2489,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2561,7 +2564,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2747,7 +2750,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2813,7 +2816,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2871,7 +2874,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2937,7 +2940,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2993,7 +2996,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3068,7 +3071,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3111,7 +3114,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3177,7 +3180,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3233,7 +3236,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3331,7 +3334,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3394,7 +3397,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3460,7 +3463,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K518" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K546" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3838,12 +3841,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K518"/>
+  <dimension ref="A2:K546"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3795" topLeftCell="A498" activePane="bottomLeft"/>
+      <pane ySplit="3795" topLeftCell="A512" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="H516" sqref="H516"/>
+      <selection pane="bottomLeft" activeCell="E525" sqref="E525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4004,7 +4007,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>184.89699999999993</v>
+        <v>184.39699999999993</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4014,7 +4017,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>172.125</v>
+        <v>173.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15358,15 +15361,19 @@
       </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A516" s="40"/>
+      <c r="A516" s="40">
+        <v>45078</v>
+      </c>
       <c r="B516" s="20"/>
-      <c r="C516" s="13"/>
+      <c r="C516" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D516" s="39"/>
       <c r="E516" s="9"/>
       <c r="F516" s="20"/>
-      <c r="G516" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G516" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H516" s="39"/>
       <c r="I516" s="9"/>
@@ -15374,26 +15381,40 @@
       <c r="K516" s="20"/>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A517" s="40"/>
-      <c r="B517" s="20"/>
-      <c r="C517" s="13"/>
+      <c r="A517" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B517" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C517" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D517" s="39"/>
       <c r="E517" s="9"/>
       <c r="F517" s="20"/>
-      <c r="G517" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H517" s="39"/>
+      <c r="G517" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H517" s="39">
+        <v>1</v>
+      </c>
       <c r="I517" s="9"/>
       <c r="J517" s="11"/>
-      <c r="K517" s="20"/>
+      <c r="K517" s="47">
+        <v>45128</v>
+      </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="50"/>
-      <c r="B518" s="15"/>
+      <c r="B518" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="C518" s="41"/>
-      <c r="D518" s="42"/>
+      <c r="D518" s="42">
+        <v>3</v>
+      </c>
       <c r="E518" s="9"/>
       <c r="F518" s="15"/>
       <c r="G518" s="41" t="str">
@@ -15403,7 +15424,457 @@
       <c r="H518" s="42"/>
       <c r="I518" s="9"/>
       <c r="J518" s="12"/>
-      <c r="K518" s="15"/>
+      <c r="K518" s="15" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A519" s="40"/>
+      <c r="B519" s="20"/>
+      <c r="C519" s="13"/>
+      <c r="D519" s="39"/>
+      <c r="E519" s="9"/>
+      <c r="F519" s="20"/>
+      <c r="G519" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H519" s="39"/>
+      <c r="I519" s="9"/>
+      <c r="J519" s="11"/>
+      <c r="K519" s="15"/>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A520" s="40"/>
+      <c r="B520" s="20"/>
+      <c r="C520" s="13"/>
+      <c r="D520" s="39"/>
+      <c r="E520" s="9"/>
+      <c r="F520" s="20"/>
+      <c r="G520" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H520" s="39"/>
+      <c r="I520" s="9"/>
+      <c r="J520" s="11"/>
+      <c r="K520" s="15"/>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A521" s="40"/>
+      <c r="B521" s="20"/>
+      <c r="C521" s="13"/>
+      <c r="D521" s="39"/>
+      <c r="E521" s="9"/>
+      <c r="F521" s="20"/>
+      <c r="G521" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H521" s="39"/>
+      <c r="I521" s="9"/>
+      <c r="J521" s="11"/>
+      <c r="K521" s="15"/>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A522" s="40"/>
+      <c r="B522" s="20"/>
+      <c r="C522" s="13"/>
+      <c r="D522" s="39"/>
+      <c r="E522" s="9"/>
+      <c r="F522" s="20"/>
+      <c r="G522" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H522" s="39"/>
+      <c r="I522" s="9"/>
+      <c r="J522" s="11"/>
+      <c r="K522" s="15"/>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A523" s="40"/>
+      <c r="B523" s="20"/>
+      <c r="C523" s="13"/>
+      <c r="D523" s="39"/>
+      <c r="E523" s="9"/>
+      <c r="F523" s="20"/>
+      <c r="G523" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H523" s="39"/>
+      <c r="I523" s="9"/>
+      <c r="J523" s="11"/>
+      <c r="K523" s="15"/>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A524" s="40"/>
+      <c r="B524" s="20"/>
+      <c r="C524" s="13"/>
+      <c r="D524" s="39"/>
+      <c r="E524" s="9"/>
+      <c r="F524" s="20"/>
+      <c r="G524" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H524" s="39"/>
+      <c r="I524" s="9"/>
+      <c r="J524" s="11"/>
+      <c r="K524" s="15"/>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A525" s="40"/>
+      <c r="B525" s="20"/>
+      <c r="C525" s="13"/>
+      <c r="D525" s="39"/>
+      <c r="E525" s="9"/>
+      <c r="F525" s="20"/>
+      <c r="G525" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H525" s="39"/>
+      <c r="I525" s="9"/>
+      <c r="J525" s="11"/>
+      <c r="K525" s="15"/>
+    </row>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A526" s="40"/>
+      <c r="B526" s="20"/>
+      <c r="C526" s="13"/>
+      <c r="D526" s="39"/>
+      <c r="E526" s="9"/>
+      <c r="F526" s="20"/>
+      <c r="G526" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H526" s="39"/>
+      <c r="I526" s="9"/>
+      <c r="J526" s="11"/>
+      <c r="K526" s="15"/>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A527" s="40"/>
+      <c r="B527" s="20"/>
+      <c r="C527" s="13"/>
+      <c r="D527" s="39"/>
+      <c r="E527" s="9"/>
+      <c r="F527" s="20"/>
+      <c r="G527" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H527" s="39"/>
+      <c r="I527" s="9"/>
+      <c r="J527" s="11"/>
+      <c r="K527" s="15"/>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A528" s="40"/>
+      <c r="B528" s="20"/>
+      <c r="C528" s="13"/>
+      <c r="D528" s="39"/>
+      <c r="E528" s="9"/>
+      <c r="F528" s="20"/>
+      <c r="G528" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H528" s="39"/>
+      <c r="I528" s="9"/>
+      <c r="J528" s="11"/>
+      <c r="K528" s="15"/>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A529" s="40"/>
+      <c r="B529" s="20"/>
+      <c r="C529" s="13"/>
+      <c r="D529" s="39"/>
+      <c r="E529" s="9"/>
+      <c r="F529" s="20"/>
+      <c r="G529" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H529" s="39"/>
+      <c r="I529" s="9"/>
+      <c r="J529" s="11"/>
+      <c r="K529" s="15"/>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A530" s="40"/>
+      <c r="B530" s="20"/>
+      <c r="C530" s="13"/>
+      <c r="D530" s="39"/>
+      <c r="E530" s="9"/>
+      <c r="F530" s="20"/>
+      <c r="G530" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H530" s="39"/>
+      <c r="I530" s="9"/>
+      <c r="J530" s="11"/>
+      <c r="K530" s="15"/>
+    </row>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A531" s="40"/>
+      <c r="B531" s="20"/>
+      <c r="C531" s="13"/>
+      <c r="D531" s="39"/>
+      <c r="E531" s="9"/>
+      <c r="F531" s="20"/>
+      <c r="G531" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H531" s="39"/>
+      <c r="I531" s="9"/>
+      <c r="J531" s="11"/>
+      <c r="K531" s="15"/>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A532" s="40"/>
+      <c r="B532" s="20"/>
+      <c r="C532" s="13"/>
+      <c r="D532" s="39"/>
+      <c r="E532" s="9"/>
+      <c r="F532" s="20"/>
+      <c r="G532" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H532" s="39"/>
+      <c r="I532" s="9"/>
+      <c r="J532" s="11"/>
+      <c r="K532" s="15"/>
+    </row>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A533" s="40"/>
+      <c r="B533" s="20"/>
+      <c r="C533" s="13"/>
+      <c r="D533" s="39"/>
+      <c r="E533" s="9"/>
+      <c r="F533" s="20"/>
+      <c r="G533" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H533" s="39"/>
+      <c r="I533" s="9"/>
+      <c r="J533" s="11"/>
+      <c r="K533" s="15"/>
+    </row>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A534" s="40"/>
+      <c r="B534" s="20"/>
+      <c r="C534" s="13"/>
+      <c r="D534" s="39"/>
+      <c r="E534" s="9"/>
+      <c r="F534" s="20"/>
+      <c r="G534" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H534" s="39"/>
+      <c r="I534" s="9"/>
+      <c r="J534" s="11"/>
+      <c r="K534" s="15"/>
+    </row>
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A535" s="40"/>
+      <c r="B535" s="20"/>
+      <c r="C535" s="13"/>
+      <c r="D535" s="39"/>
+      <c r="E535" s="9"/>
+      <c r="F535" s="20"/>
+      <c r="G535" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H535" s="39"/>
+      <c r="I535" s="9"/>
+      <c r="J535" s="11"/>
+      <c r="K535" s="15"/>
+    </row>
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A536" s="40"/>
+      <c r="B536" s="20"/>
+      <c r="C536" s="13"/>
+      <c r="D536" s="39"/>
+      <c r="E536" s="9"/>
+      <c r="F536" s="20"/>
+      <c r="G536" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H536" s="39"/>
+      <c r="I536" s="9"/>
+      <c r="J536" s="11"/>
+      <c r="K536" s="15"/>
+    </row>
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A537" s="40"/>
+      <c r="B537" s="20"/>
+      <c r="C537" s="13"/>
+      <c r="D537" s="39"/>
+      <c r="E537" s="9"/>
+      <c r="F537" s="20"/>
+      <c r="G537" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H537" s="39"/>
+      <c r="I537" s="9"/>
+      <c r="J537" s="11"/>
+      <c r="K537" s="15"/>
+    </row>
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A538" s="40"/>
+      <c r="B538" s="20"/>
+      <c r="C538" s="13"/>
+      <c r="D538" s="39"/>
+      <c r="E538" s="9"/>
+      <c r="F538" s="20"/>
+      <c r="G538" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H538" s="39"/>
+      <c r="I538" s="9"/>
+      <c r="J538" s="11"/>
+      <c r="K538" s="15"/>
+    </row>
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A539" s="40"/>
+      <c r="B539" s="20"/>
+      <c r="C539" s="13"/>
+      <c r="D539" s="39"/>
+      <c r="E539" s="9"/>
+      <c r="F539" s="20"/>
+      <c r="G539" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H539" s="39"/>
+      <c r="I539" s="9"/>
+      <c r="J539" s="11"/>
+      <c r="K539" s="15"/>
+    </row>
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A540" s="40"/>
+      <c r="B540" s="20"/>
+      <c r="C540" s="13"/>
+      <c r="D540" s="39"/>
+      <c r="E540" s="9"/>
+      <c r="F540" s="20"/>
+      <c r="G540" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H540" s="39"/>
+      <c r="I540" s="9"/>
+      <c r="J540" s="11"/>
+      <c r="K540" s="15"/>
+    </row>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A541" s="40"/>
+      <c r="B541" s="20"/>
+      <c r="C541" s="13"/>
+      <c r="D541" s="39"/>
+      <c r="E541" s="9"/>
+      <c r="F541" s="20"/>
+      <c r="G541" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H541" s="39"/>
+      <c r="I541" s="9"/>
+      <c r="J541" s="11"/>
+      <c r="K541" s="15"/>
+    </row>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A542" s="40"/>
+      <c r="B542" s="20"/>
+      <c r="C542" s="13"/>
+      <c r="D542" s="39"/>
+      <c r="E542" s="9"/>
+      <c r="F542" s="20"/>
+      <c r="G542" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H542" s="39"/>
+      <c r="I542" s="9"/>
+      <c r="J542" s="11"/>
+      <c r="K542" s="15"/>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A543" s="40"/>
+      <c r="B543" s="20"/>
+      <c r="C543" s="13"/>
+      <c r="D543" s="39"/>
+      <c r="E543" s="9"/>
+      <c r="F543" s="20"/>
+      <c r="G543" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H543" s="39"/>
+      <c r="I543" s="9"/>
+      <c r="J543" s="11"/>
+      <c r="K543" s="15"/>
+    </row>
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A544" s="40"/>
+      <c r="B544" s="20"/>
+      <c r="C544" s="13"/>
+      <c r="D544" s="39"/>
+      <c r="E544" s="9"/>
+      <c r="F544" s="20"/>
+      <c r="G544" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H544" s="39"/>
+      <c r="I544" s="9"/>
+      <c r="J544" s="11"/>
+      <c r="K544" s="15"/>
+    </row>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A545" s="40"/>
+      <c r="B545" s="20"/>
+      <c r="C545" s="13"/>
+      <c r="D545" s="39"/>
+      <c r="E545" s="9"/>
+      <c r="F545" s="20"/>
+      <c r="G545" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H545" s="39"/>
+      <c r="I545" s="9"/>
+      <c r="J545" s="11"/>
+      <c r="K545" s="15"/>
+    </row>
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A546" s="40"/>
+      <c r="B546" s="20"/>
+      <c r="C546" s="13"/>
+      <c r="D546" s="39"/>
+      <c r="E546" s="9"/>
+      <c r="F546" s="20"/>
+      <c r="G546" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H546" s="39"/>
+      <c r="I546" s="9"/>
+      <c r="J546" s="11"/>
+      <c r="K546" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
